--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:40:52+00:00</t>
+    <t>2022-04-15T20:22:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T20:22:53+00:00</t>
+    <t>2022-04-15T20:23:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T20:23:00+00:00</t>
+    <t>2022-07-28T23:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T23:41:56+00:00</t>
+    <t>2022-07-29T00:16:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:16:52+00:00</t>
+    <t>2022-07-29T07:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T07:49:23+00:00</t>
+    <t>2022-07-29T07:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T07:56:05+00:00</t>
+    <t>2022-08-15T21:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T21:20:36+00:00</t>
+    <t>2022-08-15T21:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T21:27:55+00:00</t>
+    <t>2022-08-15T22:39:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T22:39:59+00:00</t>
+    <t>2022-08-15T23:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-laboratory-order-code-vs.xlsx
+++ b/ValueSet-laboratory-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T23:07:29+00:00</t>
+    <t>2022-08-16T00:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
